--- a/docs/기능정의/기능정의서(작성중).xlsx
+++ b/docs/기능정의/기능정의서(작성중).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bumpy\docs\기능정의\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12765" windowHeight="10170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12765" windowHeight="10170" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="공통" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="235">
   <si>
     <t>화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,6 +384,618 @@
   </si>
   <si>
     <t>사용자정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이름을 Welcome 옆에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity Calendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 달(2월12일이면 2월)의 Activity내역을 달력에 표시해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity기록이 있다면, 색칠 없다면 빈 배경으로 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Activity 우측엔 오늘날짜를 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Today Meal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 등록한 내용이 없다면, empty message를 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 마지막에 등록된 날짜를 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 마지막 등록일의 운동 리스트를 가져온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 마지막 등록일의 운동 리스트가 없다면 Empty Message를 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템이 있는 경우, 첫번째 아이템에 대한 정보를 가지고, 우측의 정보들을 보여준다.
+우측의 정보는 해당 운동에 대한 best기록, 해당 운동에 대한 월 평균기록, 횟수 평균값을 보여주고, 무게 변화에 대한 차트를 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 아이템의 id값을 가지고, 상세 정보 페이지로 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템이 있는 경우, 해당 날짜의 운동에 대해 요약 내용을 보여준다.
+요약 정보는 이름, 시작무게, 종료무게, 봉무게 / 시작횟수, 종료횟수 세트수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 등록한 식단 내용의 요약 정보를 출력한다.
+요약 정보는 이름, 몇번째 끼니인지, 시간, kcal, 음식리스트
+음식 리스트가 많다면, 3개까지 보여주고, 추가적인건 … 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Aerobic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템이 있는 경우, 해당 날짜의 운동에 대해 요약 내용을 보여준다.
+요약 정보는 이름, incline(level), speed, time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템이 있는 경우, 첫번째 아이템에 대한 정보를 가지고, 우측의 정보들을 보여준다.
+우측의 정보는 해당 운동에 대한 best 시간 (가장 긴 시간), 해당 운동에 대한 평균시간, 평균level, 평균 speed를 보여준다.
+C차트에는 가로축 시간, 세로축 incline x speed 값으로 차트를 보여준다.
+또는 소모된 kcal을 계산하여 날짜별 kcal를 보여준다. (택1 필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이트 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운동 list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 날짜를 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 날짜에 대한 등록 정보를 리스트로 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템에는 요약정보가 보여진다.
+요약 정보는 이름, 시작무게, 종료무게, 봉무게, 시작횟수, 종료횟수, 세트수, 메모이다.
+메모가 긴 경우 ellipsis처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정버튼 클릭 시 해당 아이템의 수정페이지로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 날짜에 대한 목록일 때, 만약 등록정보가 없다면, 첫번째 아이템에 `+ 아이템`을 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 날짜에 대한 목록일 때, 수정버튼과 삭제버튼이 아이템의 우측상단에 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 날짜에 대한 목록이 아닐 때, 만약 등록정보가 없다면, EmptyMessage를 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 날짜에 대한 목록이 아닐 떄, 수정버튼과 삭제버튼이 아이템의 우측상단에 보여지지 않음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 후에 리스트를 재조회 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 버튼 클릭 시 삭제 확인 Modal이 popup되고, 취소버튼시 아무동작도 하지않고, 
+삭제 버튼 클릭 시 삭제 후 삭제 진행.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 월에 대한 정보가 default로 보여진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 일에 대하여 운동 목록들을 달력에 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day 클릭 시 상단 리스트정보의 날짜가 변경되며, 리스트를 업로드한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이트 등록 / 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불러오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 등록했던 모든 운동정보들의 리스트를 가져와 가나다 순서로 리스트업한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일들 중 이미지 또는 비디오 확장자가 아닌 경우 업로드 리스트에서 제외한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 및 비디오 입력box를 클릭시 사용자 pc에서 파일을 고를 수 있도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 및 비디오 입력box에 drag &amp; drop으로 파일들을 업로드한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 및 비디오 입력box에 `Choose a file or Drag it here` text로 사용자에게 어떤 동작을 할 수 있는 지 알려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넣은 파일들이 모두 맞는 확장자가 아니라면, 초기상태로 보여지게 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름과 메모를 제외한 다른 입력값들은 3자리 자연수까지 값만 입력하도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기화 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단 버튼리스트의 가장 우측 버튼이 저장으로 display.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록페이지로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성된 모든 내용을 지운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이트 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 item의 상세 정보를 가져와 display한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 무게 값들에는 저장된 단위를 붙여 display한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진정보가 없는 경우 등록된 사진이 없습니다라는 box를 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진정보가 있는 경우 첫번째 사진을 큰 사진으로 보여주며, 그 뒷순번의 사진들을 아래에 display한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모의 경우 길어진 경우 scroll로 내용을 확인할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 날짜의 상세정보인 경우 하단에 목록, 삭제, 수정 버튼들을 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 날짜의 상세정보가 아닌 경우 하단에 목록 버튼만 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록 페이지로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 아이템의 id를 가지고, 수정페이지로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록인 경우 초기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정인 경우 초기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가져온 id를 가지고 상세 info를 조회하여, 해당 페이지에 display한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단 버튼리스트의 가장 우측 버튼이 수정으로 display.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장/ 수정 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유산소 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템에는 요약정보가 보여진다.
+요약 정보는 이름, 시작level(incline), 종료level(incline), 시작Speed, 종료Speed, Time이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 등록했던 모든 유산소운동정보들의 리스트를 가져와 가나다 순서로 리스트업한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 입력란이 비어진 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름과 메모를 제외한 다른 입력값들은 값제한을 둔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 값들에는 정해진 단위를 붙여 display한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌측 차트는 최근 운동 10건에 대한 kcal 값 변화를 차트로 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식단 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식단 등록 / 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식단 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유산소 등록 / 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유산소 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식단 list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템에는 요약정보가 보여진다.
+요약 정보는 이름, 날짜, kcal, 음식리스트이다.
+리스트가 긴 경우 3개까지 보여주며, ellipsis처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 버튼 클릭 시 삭제 확인 Modal이 popup되고, 취소버튼시 아무동작도 하지않고, 
+삭제 버튼 클릭 시 삭제 후 목록 페이지로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장 시 필수값중 빈 값이 있거나 유효성검사를 통과하지 못하는 경우 error Modal을 출력한다.
+Modal 또는 input을 error상태로 변화시킴.
+동작 후에는 목록 페이지로 이동한다. ? 상세페이지로 이동한다?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 버튼 클릭 시 삭제 확인 Modal이 popup되고, 취소버튼시 아무동작도 하지않고, 
+삭제 버튼 클릭 시 삭제 후 목록페이지로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장 시 필수값중 빈 값이 있거나 유효성검사를 통과하지 못하는 경우 error Modal을 출력한다.
+Modal 또는 input을 error상태로 변화시킴.
+동작 후 목록페이지로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 일에 대하여 식단 목록들(이름)을 달력에 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식 목록의 경우 `+ item`을 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 입력창들은 모두 빈 값상태로 display된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차례의 경우, selectbox로 리스트업되고, 리스트 중 하나만 등록하도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장 시 필수값중 빈 값이 있거나 유효성검사를 통과하지 못하는 경우 error Modal을 출력한다.
+Modal 또는 input을 error상태로 변화시킴.
+동작후 목록페이지로 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식리스트의 경우 3개까지 display되며, 추가 정보는 scroll로 내용을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name 앞에 몇번째 끼니인지 표시해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 버튼 클릭 시 삭제 확인 Modal이 popup되고, 취소버튼시 아무동작도 하지않고, 
+삭제 버튼 클릭 시 삭제 후 목록페이지로 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인바디 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인바디 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 날짜에 대한 등록 정보를 item형태로 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템에는 요약정보가 보여진다.
+요약 정보는 인바디 점수, 체중, 골격근량, 체지방량 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item을 클릭하면 상세페이지로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 일에 대하여 등록된 정보들을 달력에 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차트는 가장최근정보 ~ 10개까지의 정보가 차트로 보여진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인바디 등록 / 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 입력란은 빈 값으로 display된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 입력값들은 xxx.xxx까지 값만 입력하도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 값들에는 지정된 단위를 붙여 display한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 페이지로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세페이지로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단에 인바디 정보를 토대로 최근 10개 data에 대한 차트를 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 이름, 성별, 생년월일, 이메일은 수정이 불가능한 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원의 정보를 display 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 비밀번호와 비밀번호 체크입력 란이 비어있는 상태로 Modal에 보여진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경 완료 후 현재 비밀번호 입력 페이지(or Modal)로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 페이지로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 입력 란이 비어있는 상태로 보여지며, 인증 코드 발송 버튼이 우측에 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 전송 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간만료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 만료시 만료되었습니다. Message 출력.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 입력란이 없어지고, 인증 코드 입력란이 display &amp; 재전송 버튼이 보임.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만료시간을 초기화하고, 다시 code를 발송한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀린 경우 error message출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 페이지로 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 확인 modal을 띄운다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 페이지 display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련 정보를 모두 삭제하고, 로그인 페이지로 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장 확인 modal popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장 시 현재 비밀번호 확인 Modal로 이동.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -779,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1025,7 +1637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
@@ -1401,50 +2013,203 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A16:F17"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:F17"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="E13" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E14" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="E19" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="E20" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1465,6 +2230,293 @@
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="E33" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1475,13 +2527,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="88.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1502,6 +2560,268 @@
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1512,13 +2832,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1539,6 +2865,313 @@
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="E35" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1549,13 +3182,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1576,6 +3215,298 @@
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="E34" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1586,13 +3517,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1615,6 +3551,149 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>234</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/기능정의/기능정의서(작성중).xlsx
+++ b/docs/기능정의/기능정의서(작성중).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12765" windowHeight="10170" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12765" windowHeight="10170"/>
   </bookViews>
   <sheets>
     <sheet name="공통" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="345">
   <si>
     <t>화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hover시 border 색변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>초기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>focusout 될 시 원래 border (#DBDBDB)로 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비밀번호 입력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,31 +146,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>progress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20자가 넘어가면 추가 입력X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>focous시 border 색 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -380,10 +348,6 @@
   </si>
   <si>
     <t>회원가입에 성공하였습니다 Modal popup 후 로그인페이지로 이동.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -996,6 +960,537 @@
   </si>
   <si>
     <t>저장 시 현재 비밀번호 확인 Modal로 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장, 수정, 삭제 등 api를 타고 동작을 수행하는 버튼들에 대하여 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouse over했을 때 Hover, 아니라면 Filled Design으로 돌아간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부가 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정의된 메서드를 동작 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click후 api통신 후 Modal을 띄우거나 타 페이지로 이동하는 경우 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기화, 취소 등 back과의 통신 없이 바로 동작하는 경우 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouse over했을 때 Hover, 아니라면 ghost Design 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click후 별도 동작없이 바로 변화하는경우 (초기화, 이전페이지 이동) 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text로 버튼을 표시하는 경우 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouse over했을 때 Hover Text Button Design, 아니면 Default를 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click 후 계속 눌러 active 상태인 경우 active Text Button Design, 아니면 Default를 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filled Design 적용
+border-radius : 4px
+color : #FFF
+border: none
+font-size: 14px
+font-weight:900
+background-color: #FB8C00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hover Design 적용
+border-radius: 4px
+color: #FB8C00
+border: none
+font-size:14px
+font-weight:900
+background-color: #FFE0B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost Design 적용
+border-radius: 4px
+color: #FB8C00
+border: 1px solid
+font-size: 14px
+font-weight:900
+background-color:#FFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default Text Button 디자인 적용
+color: #FB8C00
+font-size: 12px
+font-weight: 900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hover Design 적용
+color: #FFE0B2
+font-size: 12px
+font-weight: 900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active Design 적용
+color: #E65100
+font-size: 12px
+font-weight: 900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영역의 전체 넓이를 가지는 버튼의 경우 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-radius:20 을 제외하고,
+기능 버튼과 동일한 DESIGN 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 리스트 box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로고와 메뉴 정보를 차례로 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design
+가장 좌측에 위치
+width: 200px;
+border: 1px solid #bdbdbd
+box-shadow: #000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지로 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width: 180px, height:150px
+margin: 30px 10px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴정보를 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width:100%
+height:80px;
+font-size:20px;
+color: #FB8C00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cur Page Menu Design
+color: #FB8C00
+border-left: 3px solid #FB8C00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 보여지는 화면에 대해 cur page menu Design 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hover한 메뉴에 Menu Hover Desgin 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu Hover Design
+color: #FB8C00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 화면으로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스 클릭 상태라면 Menu Active Design 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu Active Design
+color : #E65100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 사진의 영역을 아이콘으로 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background-color : 그라데이션 (FB8C00 ~E65100) 대각선 좌상-&gt;우하 방향
+icon color : #fff;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 이름을 display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키, 몸무게, 나이가 존재하는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키, 몸무게, 나이가 존재하지 않는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 키, 체중, 나이 정보를 display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 키, 체중, 나이 정보를 display하지 않고, 단위만 남겨둔다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Continuity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 오늘까지 연속으로 글을 등록한 days를 출력.
+가입 후 아직 등록하지 않았다면, 0 days출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 Active 등록일을 보여준다.
+없는 경우 빈 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 물 섭취량을 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인바디 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Inbody days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 마지막에 등록한 인바디 정보 날짜를 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하위에 가장 최근의 인바디 정보를 토대로 체중, 골격근량, 체지방량, BMI, 체지방률 정보를 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이때 표준이하, 표준, 표준이상인지에 따라 각각 다른 배경색을 적용.
+표준이하 : #FFE0B2
+표준 : #FB8C00
+표준이상 : E65100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인바디 정보가 없는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값을 표시하지 않고, 배경색만 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌우 이동버튼과 중간에 List Item을 3개 반까지 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트가 없는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empty Message를 가운데 출력하고, 좌우 버튼은 비활성화 처리.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 좌측 또는 우측으로 이동 한 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 좌우 버튼은 비활성화 처리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌우 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌우 버튼 클릭 시 리스트 한 개의 넓이 만큼 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List Item Design 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 위에는 이름, 그아래로 부가정보들이 display되며, 3줄이상 넘어가는 경우 ellipsis 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 아이템의 정보가 Today인 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측 상단에 수정과 삭제 버튼이 display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 아이템의 정보가 Today가 아닌 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측 상단에 수정과 삭제 버튼이 non-display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List Item Hover Design 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List Item hover Design
+List Item Design에서 배경이 fff 50%로 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List Item Design
+background-color: 그라데이션 (FB8C00 ~E65100) 대각선 좌상-&gt;우하 방향
+color: #fff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 아이템의 정보를 토대로 상세 페이지 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default Input Design 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default Input Design
+border-radius: 4px
+border: 1px solid #DBDBDB
+color: #DBDBDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값이 있는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color: #181818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 상태인 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focusout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력이 끝난 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-color: #DBDBDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouse over한 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-color: #FB8C00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-color: #E65100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Correct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효성 검사를 통과한 경우나 정규표현식을 pass 한 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-color: #00C853</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InCorrect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효성 검사를 통과한 경우나 정규표현식을 pass 하지 못한 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-color: #D50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글자제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력되는 글자길이의 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suffix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input의 끝에 자동으로 붙여지는 글자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부가기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값이 없는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값을 표시하지 않고, 배경만 출력
+backgorund-color : #FFAB91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값을 표시해주며, 퍼센티지를 계산하여 표시
+background-color: #FB8C00
+color: #FFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-radius:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1093,7 +1588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1108,6 +1603,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1389,93 +1893,604 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F22"/>
+  <dimension ref="A2:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="15.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="B3" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="B15" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D19" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="D22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="B24" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D27" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="D29" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D30" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="D32" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D33" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="B35" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D36" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D37" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B39" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D40" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D41" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D42" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="C43" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C44" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
-        <v>33</v>
+      <c r="B46" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D47" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C48" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C49" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C50" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C51" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C52" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C53" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D54" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>6</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="D57" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D58" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1506,13 +2521,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1526,7 +2541,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -1534,96 +2549,96 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1660,13 +2675,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1674,13 +2689,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -1688,321 +2703,321 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="3:5" ht="33" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E44" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2039,13 +3054,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2053,139 +3068,139 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="4:5" ht="33" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="4:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2223,13 +3238,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2237,102 +3252,102 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2340,106 +3355,106 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2447,76 +3462,76 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="3:5" ht="33" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E36" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="3:5" ht="33" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2553,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2567,102 +3582,102 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2670,86 +3685,86 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2757,71 +3772,71 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E29" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="4:5" ht="33" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2858,13 +3873,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2872,102 +3887,102 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2975,116 +3990,116 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3092,86 +4107,86 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="33" x14ac:dyDescent="0.3">
       <c r="E35" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E36" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E37" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E38" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E40" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="3:5" ht="33" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3208,13 +4223,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3222,107 +4237,107 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3330,106 +4345,106 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E27" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3437,76 +4452,76 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="33" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E35" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E37" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="3:5" ht="33" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3519,7 +4534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -3542,13 +4557,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3556,142 +4571,142 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E11" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E12" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E13" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E15" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E16" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/docs/기능정의/기능정의서(작성중).xlsx
+++ b/docs/기능정의/기능정의서(작성중).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12765" windowHeight="10170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12765" windowHeight="10170" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="공통" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="349">
   <si>
     <t>화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,10 +207,6 @@
   </si>
   <si>
     <t>입력된 이메일로 코드가 전송되고, 인증 코드 입력 Modal을 popup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간내 입력하지 않는다면, 만료되었습니다 Modal popup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -344,10 +340,6 @@
   </si>
   <si>
     <t>클릭 후 성공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입에 성공하였습니다 Modal popup 후 로그인페이지로 이동.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1099,10 +1091,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로고와 메뉴 정보를 차례로 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Design
 가장 좌측에 위치
 width: 200px;
@@ -1246,10 +1234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전체 물 섭취량을 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인바디 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1325,10 +1309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가장 위에는 이름, 그아래로 부가정보들이 display되며, 3줄이상 넘어가는 경우 ellipsis 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>해당 아이템의 정보가 Today인 경우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1431,23 +1411,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>border-color: #00C853</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>InCorrect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>유효성 검사를 통과한 경우나 정규표현식을 pass 하지 못한 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border-color: #D50000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글자제한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1491,6 +1459,58 @@
   </si>
   <si>
     <t>border-radius:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로고와 메뉴 정보를 차례로 보여준다.
+(메뉴정보에 메인페이지는 삭제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 경우 빈 값. -&gt; 물은 필수값.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전날 부터 한 달동안의 평균 물 섭취량, 
+(오늘 걸 다 등록했는지 안했는지 모르기 때문에 전날부터 한달로 계산)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 위에는 이름, 이름은 1줄이상 넘어가는경우 ellipsis 처리
+그아래로 부가정보들이 display되며, 3줄이상 넘어가는 경우 ellipsis 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-color: #00C853, message출력 시 메세지는 border-color로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border-color: #D50000,  message출력 시 메세지는 border-color로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파싱 (글자제한, 휴대전화, 이메일, ….)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복검사와 이메일 검증이 끝나고, 중간에 수정이되면 중복체크 성공flag가 false로.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간(5분)내 입력하지 않는다면, 만료되었습니다 Modal popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 성공하였습니다 Modal popup 후 로그인페이지로 이동.
+검증은 회원가입 버튼을 클릭했을 때.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1588,7 +1608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1612,6 +1632,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1893,10 +1916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F58"/>
+  <dimension ref="A2:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1934,135 +1957,135 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="C10" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="C13" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
@@ -2070,87 +2093,87 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>253</v>
+        <v>224</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>337</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D19" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="C20" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="D22" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -2158,333 +2181,344 @@
         <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D25" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D27" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="D29" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="D30" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D31" s="5"/>
+      <c r="E31" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="C32" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D30" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="E30" s="6" t="s">
+    </row>
+    <row r="33" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="D33" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="5" t="s">
+      <c r="E33" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D31" s="7" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="D32" s="7" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>4</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D33" s="7" t="s">
+      <c r="C36" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>4</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D36" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D37" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D38" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="D39" s="7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C38" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B39" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="D40" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="D41" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D42" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D43" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="C44" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C45" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="C43" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D43" s="7" t="s">
+    <row r="47" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>5</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="C47" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C44" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D44" s="7" t="s">
+      <c r="E47" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D48" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E48" s="6" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
-        <v>5</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D47" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C48" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C49" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C50" s="5" t="s">
-        <v>227</v>
+        <v>317</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C51" s="5" t="s">
-        <v>328</v>
+        <v>225</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C52" s="5" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C53" s="5" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C54" s="5" t="s">
+        <v>330</v>
+      </c>
       <c r="D54" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D55" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>6</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>226</v>
-      </c>
       <c r="D56" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="D57" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>6</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="D58" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="D59" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D60" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2499,7 +2533,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2521,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -2604,7 +2638,7 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -2632,10 +2666,10 @@
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
@@ -2650,10 +2684,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2675,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -2724,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -2755,269 +2789,277 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>7</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E19" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
         <v>39</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>7</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
         <v>46</v>
       </c>
-      <c r="D25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E27" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
-        <v>50</v>
-      </c>
       <c r="E28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
         <v>55</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
         <v>7</v>
       </c>
-      <c r="E29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D30" t="s">
+      <c r="E32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
         <v>8</v>
       </c>
-      <c r="E30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s">
         <v>7</v>
       </c>
-      <c r="E31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D32" t="s">
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
         <v>8</v>
       </c>
-      <c r="E32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="E36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" t="s">
         <v>72</v>
       </c>
-      <c r="D41" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" t="s">
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E42" t="s">
+    <row r="44" spans="3:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="3:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" t="s">
+    <row r="45" spans="3:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
         <v>76</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" t="s">
-        <v>78</v>
+      <c r="E45" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3030,8 +3072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3054,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -3068,139 +3110,139 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="4:5" ht="33" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="4:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3214,8 +3256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3238,7 +3280,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -3252,102 +3294,102 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
         <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3355,106 +3397,106 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
         <v>119</v>
-      </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" t="s">
         <v>153</v>
-      </c>
-      <c r="E26" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3462,76 +3504,76 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" t="s">
         <v>136</v>
       </c>
-      <c r="C30" t="s">
-        <v>138</v>
-      </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="3:5" ht="33" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E36" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="3:5" ht="33" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3544,7 +3586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -3568,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -3582,102 +3624,102 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3685,86 +3727,86 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" t="s">
         <v>153</v>
-      </c>
-      <c r="E22" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3772,71 +3814,71 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E29" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="4:5" ht="33" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3849,8 +3891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3873,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -3887,102 +3929,102 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3990,116 +4032,116 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" t="s">
         <v>153</v>
-      </c>
-      <c r="E28" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -4107,86 +4149,86 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="33" x14ac:dyDescent="0.3">
       <c r="E35" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E36" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E37" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E38" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E40" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="3:5" ht="33" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4199,8 +4241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4223,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -4237,107 +4279,107 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -4345,106 +4387,106 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" t="s">
         <v>153</v>
-      </c>
-      <c r="E27" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -4452,76 +4494,76 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" t="s">
         <v>136</v>
       </c>
-      <c r="C31" t="s">
-        <v>138</v>
-      </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="33" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E35" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E37" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="3:5" ht="33" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4557,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -4571,142 +4613,142 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
         <v>198</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" t="s">
         <v>220</v>
-      </c>
-      <c r="E16" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
